--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -21,6 +21,31 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Hoàng Việt </t>
+  </si>
+  <si>
+    <t>[Toeic
+]</t>
+  </si>
+  <si>
+    <t>Võ Hoàng Việt</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[Ielst
+]</t>
+  </si>
+  <si>
+    <t>Nguyễn HOàng VIệt</t>
+  </si>
+  <si>
+    <t>[CCNA
+, CCDE
+]</t>
   </si>
   <si>
     <t>Nguyễn Lê Dân</t>
@@ -46,28 +71,10 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">Võ Hoàng Việt </t>
-  </si>
-  <si>
-    <t>[Toeic
-]</t>
-  </si>
-  <si>
-    <t>Võ Hoàng Việt</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[Ielst
-]</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng</t>
-  </si>
-  <si>
-    <t>[Toeic
-, CCNA
+    <t>Hạ Thị Anh Đài</t>
+  </si>
+  <si>
+    <t>[PET
 ]</t>
   </si>
 </sst>
@@ -113,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -151,31 +158,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -187,6 +194,22 @@
       </c>
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
